--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Itga9.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Itga9.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H2">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I2">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J2">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.91268935964926</v>
+        <v>2.514173333333333</v>
       </c>
       <c r="N2">
-        <v>1.91268935964926</v>
+        <v>7.54252</v>
       </c>
       <c r="O2">
-        <v>0.1195492106812362</v>
+        <v>0.1024996538225213</v>
       </c>
       <c r="P2">
-        <v>0.1195492106812362</v>
+        <v>0.1046348067646137</v>
       </c>
       <c r="Q2">
-        <v>32.31917658667738</v>
+        <v>62.15485762774666</v>
       </c>
       <c r="R2">
-        <v>32.31917658667738</v>
+        <v>559.3937186497199</v>
       </c>
       <c r="S2">
-        <v>0.001285544096425124</v>
+        <v>0.001374363943706055</v>
       </c>
       <c r="T2">
-        <v>0.001285544096425124</v>
+        <v>0.001408205097324041</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H3">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I3">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J3">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.52963439111166</v>
+        <v>4.942469</v>
       </c>
       <c r="N3">
-        <v>4.52963439111166</v>
+        <v>14.827407</v>
       </c>
       <c r="O3">
-        <v>0.283116656345744</v>
+        <v>0.2014981842389055</v>
       </c>
       <c r="P3">
-        <v>0.283116656345744</v>
+        <v>0.2056955588139349</v>
       </c>
       <c r="Q3">
-        <v>76.53833228113406</v>
+        <v>122.186665872103</v>
       </c>
       <c r="R3">
-        <v>76.53833228113406</v>
+        <v>1099.679992848927</v>
       </c>
       <c r="S3">
-        <v>0.003044427847669738</v>
+        <v>0.002701783165235859</v>
       </c>
       <c r="T3">
-        <v>0.003044427847669738</v>
+        <v>0.002768309546079848</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H4">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I4">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J4">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.66781720397598</v>
+        <v>8.193224666666667</v>
       </c>
       <c r="N4">
-        <v>4.66781720397598</v>
+        <v>24.579674</v>
       </c>
       <c r="O4">
-        <v>0.2917535247030144</v>
+        <v>0.3340273643385007</v>
       </c>
       <c r="P4">
-        <v>0.2917535247030144</v>
+        <v>0.3409854318354076</v>
       </c>
       <c r="Q4">
-        <v>78.87324082635895</v>
+        <v>202.5511550524793</v>
       </c>
       <c r="R4">
-        <v>78.87324082635895</v>
+        <v>1822.960395472314</v>
       </c>
       <c r="S4">
-        <v>0.003137302364071983</v>
+        <v>0.004478797231382774</v>
       </c>
       <c r="T4">
-        <v>0.003137302364071983</v>
+        <v>0.004589079275542286</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H5">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I5">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J5">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.39210689371727</v>
+        <v>7.377161666666666</v>
       </c>
       <c r="N5">
-        <v>3.39210689371727</v>
+        <v>22.131485</v>
       </c>
       <c r="O5">
-        <v>0.212017544639158</v>
+        <v>0.3007575122211572</v>
       </c>
       <c r="P5">
-        <v>0.212017544639158</v>
+        <v>0.3070225410590818</v>
       </c>
       <c r="Q5">
-        <v>57.31725392095953</v>
+        <v>182.3766193878983</v>
       </c>
       <c r="R5">
-        <v>57.31725392095953</v>
+        <v>1641.389574491085</v>
       </c>
       <c r="S5">
-        <v>0.002279880404866605</v>
+        <v>0.004032699284147925</v>
       </c>
       <c r="T5">
-        <v>0.002279880404866605</v>
+        <v>0.004131996996806182</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H6">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I6">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J6">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.49693231133141</v>
+        <v>1.5015745</v>
       </c>
       <c r="N6">
-        <v>1.49693231133141</v>
+        <v>3.003149</v>
       </c>
       <c r="O6">
-        <v>0.09356306363084742</v>
+        <v>0.06121728537891535</v>
       </c>
       <c r="P6">
-        <v>0.09356306363084742</v>
+        <v>0.04166166152696218</v>
       </c>
       <c r="Q6">
-        <v>25.294028778983</v>
+        <v>37.1216049536315</v>
       </c>
       <c r="R6">
-        <v>25.294028778983</v>
+        <v>222.729629721789</v>
       </c>
       <c r="S6">
-        <v>0.001006108224459926</v>
+        <v>0.0008208303796032818</v>
       </c>
       <c r="T6">
-        <v>0.001006108224459926</v>
+        <v>0.0005606945331034718</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H7">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J7">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.91268935964926</v>
+        <v>2.514173333333333</v>
       </c>
       <c r="N7">
-        <v>1.91268935964926</v>
+        <v>7.54252</v>
       </c>
       <c r="O7">
-        <v>0.1195492106812362</v>
+        <v>0.1024996538225213</v>
       </c>
       <c r="P7">
-        <v>0.1195492106812362</v>
+        <v>0.1046348067646137</v>
       </c>
       <c r="Q7">
-        <v>2562.472118897444</v>
+        <v>3666.371166670182</v>
       </c>
       <c r="R7">
-        <v>2562.472118897444</v>
+        <v>32997.34050003163</v>
       </c>
       <c r="S7">
-        <v>0.1019262014880822</v>
+        <v>0.08107054746861114</v>
       </c>
       <c r="T7">
-        <v>0.1019262014880822</v>
+        <v>0.08306675878028265</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H8">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J8">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.52963439111166</v>
+        <v>4.942469</v>
       </c>
       <c r="N8">
-        <v>4.52963439111166</v>
+        <v>14.827407</v>
       </c>
       <c r="O8">
-        <v>0.283116656345744</v>
+        <v>0.2014981842389055</v>
       </c>
       <c r="P8">
-        <v>0.283116656345744</v>
+        <v>0.2056955588139349</v>
       </c>
       <c r="Q8">
-        <v>6068.451093465109</v>
+        <v>7207.508564946944</v>
       </c>
       <c r="R8">
-        <v>6068.451093465109</v>
+        <v>64867.5770845225</v>
       </c>
       <c r="S8">
-        <v>0.2413818141909129</v>
+        <v>0.1593719344502788</v>
       </c>
       <c r="T8">
-        <v>0.2413818141909129</v>
+        <v>0.1632961716516595</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H9">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J9">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.66781720397598</v>
+        <v>8.193224666666667</v>
       </c>
       <c r="N9">
-        <v>4.66781720397598</v>
+        <v>24.579674</v>
       </c>
       <c r="O9">
-        <v>0.2917535247030144</v>
+        <v>0.3340273643385007</v>
       </c>
       <c r="P9">
-        <v>0.2917535247030144</v>
+        <v>0.3409854318354076</v>
       </c>
       <c r="Q9">
-        <v>6253.57765543886</v>
+        <v>11948.02374269511</v>
       </c>
       <c r="R9">
-        <v>6253.57765543886</v>
+        <v>107532.213684256</v>
       </c>
       <c r="S9">
-        <v>0.2487455029964916</v>
+        <v>0.2641938805306432</v>
       </c>
       <c r="T9">
-        <v>0.2487455029964916</v>
+        <v>0.2706991630192542</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H10">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I10">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J10">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.39210689371727</v>
+        <v>7.377161666666666</v>
       </c>
       <c r="N10">
-        <v>3.39210689371727</v>
+        <v>22.131485</v>
       </c>
       <c r="O10">
-        <v>0.212017544639158</v>
+        <v>0.3007575122211572</v>
       </c>
       <c r="P10">
-        <v>0.212017544639158</v>
+        <v>0.3070225410590818</v>
       </c>
       <c r="Q10">
-        <v>4544.480417386884</v>
+        <v>10757.97458668901</v>
       </c>
       <c r="R10">
-        <v>4544.480417386884</v>
+        <v>96821.77128020114</v>
       </c>
       <c r="S10">
-        <v>0.1807635771976796</v>
+        <v>0.2378795953134172</v>
       </c>
       <c r="T10">
-        <v>0.1807635771976796</v>
+        <v>0.2437369375148417</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H11">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I11">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J11">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.49693231133141</v>
+        <v>1.5015745</v>
       </c>
       <c r="N11">
-        <v>1.49693231133141</v>
+        <v>3.003149</v>
       </c>
       <c r="O11">
-        <v>0.09356306363084742</v>
+        <v>0.06121728537891535</v>
       </c>
       <c r="P11">
-        <v>0.09356306363084742</v>
+        <v>0.04166166152696218</v>
       </c>
       <c r="Q11">
-        <v>2005.47323187224</v>
+        <v>2189.717541911932</v>
       </c>
       <c r="R11">
-        <v>2005.47323187224</v>
+        <v>13138.30525147159</v>
       </c>
       <c r="S11">
-        <v>0.07977072890015174</v>
+        <v>0.04841888391939539</v>
       </c>
       <c r="T11">
-        <v>0.07977072890015174</v>
+        <v>0.03307407253335053</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H12">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I12">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J12">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.91268935964926</v>
+        <v>2.514173333333333</v>
       </c>
       <c r="N12">
-        <v>1.91268935964926</v>
+        <v>7.54252</v>
       </c>
       <c r="O12">
-        <v>0.1195492106812362</v>
+        <v>0.1024996538225213</v>
       </c>
       <c r="P12">
-        <v>0.1195492106812362</v>
+        <v>0.1046348067646137</v>
       </c>
       <c r="Q12">
-        <v>104.9098051619545</v>
+        <v>151.1012893569334</v>
       </c>
       <c r="R12">
-        <v>104.9098051619545</v>
+        <v>1359.9116042124</v>
       </c>
       <c r="S12">
-        <v>0.004172946062575593</v>
+        <v>0.003341141334172395</v>
       </c>
       <c r="T12">
-        <v>0.004172946062575593</v>
+        <v>0.003423410719706648</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H13">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I13">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J13">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.52963439111166</v>
+        <v>4.942469</v>
       </c>
       <c r="N13">
-        <v>4.52963439111166</v>
+        <v>14.827407</v>
       </c>
       <c r="O13">
-        <v>0.283116656345744</v>
+        <v>0.2014981842389055</v>
       </c>
       <c r="P13">
-        <v>0.283116656345744</v>
+        <v>0.2056955588139349</v>
       </c>
       <c r="Q13">
-        <v>248.4475897923923</v>
+        <v>297.0413489815101</v>
       </c>
       <c r="R13">
-        <v>248.4475897923923</v>
+        <v>2673.37214083359</v>
       </c>
       <c r="S13">
-        <v>0.009882378391419788</v>
+        <v>0.006568157910923287</v>
       </c>
       <c r="T13">
-        <v>0.009882378391419788</v>
+        <v>0.006729886572293266</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H14">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I14">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J14">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.66781720397598</v>
+        <v>8.193224666666667</v>
       </c>
       <c r="N14">
-        <v>4.66781720397598</v>
+        <v>24.579674</v>
       </c>
       <c r="O14">
-        <v>0.2917535247030144</v>
+        <v>0.3340273643385007</v>
       </c>
       <c r="P14">
-        <v>0.2917535247030144</v>
+        <v>0.3409854318354076</v>
       </c>
       <c r="Q14">
-        <v>256.026829934652</v>
+        <v>492.4110818894868</v>
       </c>
       <c r="R14">
-        <v>256.026829934652</v>
+        <v>4431.69973700538</v>
       </c>
       <c r="S14">
-        <v>0.01018385412345582</v>
+        <v>0.0108881600289933</v>
       </c>
       <c r="T14">
-        <v>0.01018385412345582</v>
+        <v>0.01115626070046812</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H15">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I15">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J15">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.39210689371727</v>
+        <v>7.377161666666666</v>
       </c>
       <c r="N15">
-        <v>3.39210689371727</v>
+        <v>22.131485</v>
       </c>
       <c r="O15">
-        <v>0.212017544639158</v>
+        <v>0.3007575122211572</v>
       </c>
       <c r="P15">
-        <v>0.212017544639158</v>
+        <v>0.3070225410590818</v>
       </c>
       <c r="Q15">
-        <v>186.0549239285037</v>
+        <v>443.3658669627167</v>
       </c>
       <c r="R15">
-        <v>186.0549239285037</v>
+        <v>3990.29280266445</v>
       </c>
       <c r="S15">
-        <v>0.007400615805469165</v>
+        <v>0.009803675604455319</v>
       </c>
       <c r="T15">
-        <v>0.007400615805469165</v>
+        <v>0.01004507286583621</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H16">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I16">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J16">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.49693231133141</v>
+        <v>1.5015745</v>
       </c>
       <c r="N16">
-        <v>1.49693231133141</v>
+        <v>3.003149</v>
       </c>
       <c r="O16">
-        <v>0.09356306363084742</v>
+        <v>0.06121728537891535</v>
       </c>
       <c r="P16">
-        <v>0.09356306363084742</v>
+        <v>0.04166166152696218</v>
       </c>
       <c r="Q16">
-        <v>82.10579325396063</v>
+        <v>90.24431211935502</v>
       </c>
       <c r="R16">
-        <v>82.10579325396063</v>
+        <v>541.4658727161301</v>
       </c>
       <c r="S16">
-        <v>0.003265882022608242</v>
+        <v>0.001995476032528616</v>
       </c>
       <c r="T16">
-        <v>0.003265882022608242</v>
+        <v>0.001363073943387131</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H17">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I17">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J17">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.91268935964926</v>
+        <v>2.514173333333333</v>
       </c>
       <c r="N17">
-        <v>1.91268935964926</v>
+        <v>7.54252</v>
       </c>
       <c r="O17">
-        <v>0.1195492106812362</v>
+        <v>0.1024996538225213</v>
       </c>
       <c r="P17">
-        <v>0.1195492106812362</v>
+        <v>0.1046348067646137</v>
       </c>
       <c r="Q17">
-        <v>266.6684999566424</v>
+        <v>704.3932048652401</v>
       </c>
       <c r="R17">
-        <v>266.6684999566424</v>
+        <v>6339.53884378716</v>
       </c>
       <c r="S17">
-        <v>0.01060714263256076</v>
+        <v>0.01557549417547328</v>
       </c>
       <c r="T17">
-        <v>0.01060714263256076</v>
+        <v>0.01595901172443261</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H18">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I18">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J18">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.52963439111166</v>
+        <v>4.942469</v>
       </c>
       <c r="N18">
-        <v>4.52963439111166</v>
+        <v>14.827407</v>
       </c>
       <c r="O18">
-        <v>0.283116656345744</v>
+        <v>0.2014981842389055</v>
       </c>
       <c r="P18">
-        <v>0.283116656345744</v>
+        <v>0.2056955588139349</v>
       </c>
       <c r="Q18">
-        <v>631.5248225416315</v>
+        <v>1384.726157381259</v>
       </c>
       <c r="R18">
-        <v>631.5248225416315</v>
+        <v>12462.53541643133</v>
       </c>
       <c r="S18">
-        <v>0.02511985431271726</v>
+        <v>0.03061896970321215</v>
       </c>
       <c r="T18">
-        <v>0.02511985431271726</v>
+        <v>0.03137290483232848</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H19">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I19">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J19">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.66781720397598</v>
+        <v>8.193224666666667</v>
       </c>
       <c r="N19">
-        <v>4.66781720397598</v>
+        <v>24.579674</v>
       </c>
       <c r="O19">
-        <v>0.2917535247030144</v>
+        <v>0.3340273643385007</v>
       </c>
       <c r="P19">
-        <v>0.2917535247030144</v>
+        <v>0.3409854318354076</v>
       </c>
       <c r="Q19">
-        <v>650.7903678014612</v>
+        <v>2295.486832438339</v>
       </c>
       <c r="R19">
-        <v>650.7903678014612</v>
+        <v>20659.38149194505</v>
       </c>
       <c r="S19">
-        <v>0.02588617049366213</v>
+        <v>0.05075764720836431</v>
       </c>
       <c r="T19">
-        <v>0.02588617049366213</v>
+        <v>0.0520074597811781</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H20">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I20">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J20">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.39210689371727</v>
+        <v>7.377161666666666</v>
       </c>
       <c r="N20">
-        <v>3.39210689371727</v>
+        <v>22.131485</v>
       </c>
       <c r="O20">
-        <v>0.212017544639158</v>
+        <v>0.3007575122211572</v>
       </c>
       <c r="P20">
-        <v>0.212017544639158</v>
+        <v>0.3070225410590818</v>
       </c>
       <c r="Q20">
-        <v>472.9299363102253</v>
+        <v>2066.851350420945</v>
       </c>
       <c r="R20">
-        <v>472.9299363102253</v>
+        <v>18601.6621537885</v>
       </c>
       <c r="S20">
-        <v>0.01881150301016452</v>
+        <v>0.04570207513033762</v>
       </c>
       <c r="T20">
-        <v>0.01881150301016452</v>
+        <v>0.04682740365210891</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H21">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I21">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J21">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.49693231133141</v>
+        <v>1.5015745</v>
       </c>
       <c r="N21">
-        <v>1.49693231133141</v>
+        <v>3.003149</v>
       </c>
       <c r="O21">
-        <v>0.09356306363084742</v>
+        <v>0.06121728537891535</v>
       </c>
       <c r="P21">
-        <v>0.09356306363084742</v>
+        <v>0.04166166152696218</v>
       </c>
       <c r="Q21">
-        <v>208.7033589566145</v>
+        <v>420.6944924503696</v>
       </c>
       <c r="R21">
-        <v>208.7033589566145</v>
+        <v>2524.166954702217</v>
       </c>
       <c r="S21">
-        <v>0.008301491539897926</v>
+        <v>0.009302367728075973</v>
       </c>
       <c r="T21">
-        <v>0.008301491539897926</v>
+        <v>0.006354280810818941</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H22">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I22">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J22">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.91268935964926</v>
+        <v>2.514173333333333</v>
       </c>
       <c r="N22">
-        <v>1.91268935964926</v>
+        <v>7.54252</v>
       </c>
       <c r="O22">
-        <v>0.1195492106812362</v>
+        <v>0.1024996538225213</v>
       </c>
       <c r="P22">
-        <v>0.1195492106812362</v>
+        <v>0.1046348067646137</v>
       </c>
       <c r="Q22">
-        <v>39.15316718808583</v>
+        <v>51.47026207528</v>
       </c>
       <c r="R22">
-        <v>39.15316718808583</v>
+        <v>308.82157245168</v>
       </c>
       <c r="S22">
-        <v>0.00155737640159242</v>
+        <v>0.001138106900558443</v>
       </c>
       <c r="T22">
-        <v>0.00155737640159242</v>
+        <v>0.000777420442867712</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H23">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I23">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J23">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.52963439111166</v>
+        <v>4.942469</v>
       </c>
       <c r="N23">
-        <v>4.52963439111166</v>
+        <v>14.827407</v>
       </c>
       <c r="O23">
-        <v>0.283116656345744</v>
+        <v>0.2014981842389055</v>
       </c>
       <c r="P23">
-        <v>0.283116656345744</v>
+        <v>0.2056955588139349</v>
       </c>
       <c r="Q23">
-        <v>92.7226011486882</v>
+        <v>101.182432951698</v>
       </c>
       <c r="R23">
-        <v>92.7226011486882</v>
+        <v>607.0945977101881</v>
       </c>
       <c r="S23">
-        <v>0.003688181603024311</v>
+        <v>0.002237339009255337</v>
       </c>
       <c r="T23">
-        <v>0.003688181603024311</v>
+        <v>0.001528286211573826</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H24">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I24">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J24">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.66781720397598</v>
+        <v>8.193224666666667</v>
       </c>
       <c r="N24">
-        <v>4.66781720397598</v>
+        <v>24.579674</v>
       </c>
       <c r="O24">
-        <v>0.2917535247030144</v>
+        <v>0.3340273643385007</v>
       </c>
       <c r="P24">
-        <v>0.2917535247030144</v>
+        <v>0.3409854318354076</v>
       </c>
       <c r="Q24">
-        <v>95.55123338178058</v>
+        <v>167.732039491436</v>
       </c>
       <c r="R24">
-        <v>95.55123338178058</v>
+        <v>1006.392236948616</v>
       </c>
       <c r="S24">
-        <v>0.003800694725332901</v>
+        <v>0.003708879339117026</v>
       </c>
       <c r="T24">
-        <v>0.003800694725332901</v>
+        <v>0.002533469058964906</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H25">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I25">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J25">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.39210689371727</v>
+        <v>7.377161666666666</v>
       </c>
       <c r="N25">
-        <v>3.39210689371727</v>
+        <v>22.131485</v>
       </c>
       <c r="O25">
-        <v>0.212017544639158</v>
+        <v>0.3007575122211572</v>
       </c>
       <c r="P25">
-        <v>0.212017544639158</v>
+        <v>0.3070225410590818</v>
       </c>
       <c r="Q25">
-        <v>69.43716587304336</v>
+        <v>151.02556348079</v>
       </c>
       <c r="R25">
-        <v>69.43716587304336</v>
+        <v>906.15338088474</v>
       </c>
       <c r="S25">
-        <v>0.00276196822097812</v>
+        <v>0.00333946688879919</v>
       </c>
       <c r="T25">
-        <v>0.00276196822097812</v>
+        <v>0.002281130029488834</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H26">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I26">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J26">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.49693231133141</v>
+        <v>1.5015745</v>
       </c>
       <c r="N26">
-        <v>1.49693231133141</v>
+        <v>3.003149</v>
       </c>
       <c r="O26">
-        <v>0.09356306363084742</v>
+        <v>0.06121728537891535</v>
       </c>
       <c r="P26">
-        <v>0.09356306363084742</v>
+        <v>0.04166166152696218</v>
       </c>
       <c r="Q26">
-        <v>30.64252998487637</v>
+        <v>30.740296230129</v>
       </c>
       <c r="R26">
-        <v>30.64252998487637</v>
+        <v>122.961184920516</v>
       </c>
       <c r="S26">
-        <v>0.001218852943729575</v>
+        <v>0.0006797273193120842</v>
       </c>
       <c r="T26">
-        <v>0.001218852943729575</v>
+        <v>0.0003095397063021015</v>
       </c>
     </row>
   </sheetData>
